--- a/CashFlow/AON_cashflow.xlsx
+++ b/CashFlow/AON_cashflow.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>399000000.0</v>
+        <v>400000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>295000000.0</v>
@@ -516,7 +516,7 @@
         <v>221000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>255000000.0</v>
+        <v>254000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>269000000.0</v>
@@ -3714,7 +3714,7 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>91000000.0</v>
+        <v>90000000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>57000000.0</v>
@@ -3726,7 +3726,7 @@
         <v>133000000.0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>-409000000.0</v>
+        <v>-408000000.0</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>-571000000.0</v>
@@ -4094,10 +4094,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>-1474000000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>-1912000000.0</v>
